--- a/dam/backend/datablau-datastandard-server/src/main/resources/resources/domain/code_template.xlsx
+++ b/dam/backend/datablau-datastandard-server/src/main/resources/resources/domain/code_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="参考数据" sheetId="2" r:id="rId1"/>
@@ -28,12 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>业务域</t>
   </si>
   <si>
-    <t>代码编号</t>
+    <t>参考数据编码</t>
   </si>
   <si>
     <t>中文名称</t>
@@ -42,7 +42,7 @@
     <t>英文名称</t>
   </si>
   <si>
-    <t>代码状态</t>
+    <t>参考数据状态</t>
   </si>
   <si>
     <t>备注</t>
@@ -69,70 +69,34 @@
     <t>备注三</t>
   </si>
   <si>
-    <t>参考数据</t>
-  </si>
-  <si>
-    <t>CD0002</t>
-  </si>
-  <si>
-    <t>国家代码</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>ABW</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>OMN</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>埃及</t>
+    <t>D01战略规划到执行</t>
+  </si>
+  <si>
+    <t>CD-01-000001</t>
+  </si>
+  <si>
+    <t>气体类型</t>
+  </si>
+  <si>
+    <t>Gas Type</t>
+  </si>
+  <si>
+    <t>国产气分类</t>
+  </si>
+  <si>
+    <t>常规气</t>
+  </si>
+  <si>
+    <t>CD-01-000002</t>
+  </si>
+  <si>
+    <t>非常规气</t>
+  </si>
+  <si>
+    <t>CD-01-000003</t>
+  </si>
+  <si>
+    <t>煤制气</t>
   </si>
   <si>
     <r>
@@ -761,7 +725,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,15 +790,12 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="仿宋"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -997,7 +958,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,12 +1004,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,52 +1393,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1498,89 +1456,86 @@
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,10 +1584,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1958,24 +1912,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.9911504424779" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.7522123893805" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.3716814159292" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1238938053097" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.1238938053097" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.9909090909091" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.7545454545455" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.3727272727273" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1272727272727" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" style="12" customWidth="1"/>
     <col min="6" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="16.8761061946903" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="12" customWidth="1"/>
     <col min="8" max="8" width="20" style="12" customWidth="1"/>
-    <col min="9" max="9" width="21.5044247787611" style="12" customWidth="1"/>
-    <col min="10" max="10" width="18.3716814159292" style="12" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.3727272727273" style="12" customWidth="1"/>
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2034,27 +1988,29 @@
         <v>16</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="16">
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:13">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>15</v>
@@ -2063,27 +2019,29 @@
         <v>16</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="F3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>15</v>
@@ -2092,194 +2050,22 @@
         <v>16</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="F4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="16">
         <v>3</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
-        <v>5</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17">
-        <v>6</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
-        <v>7</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
-        <v>8</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>9</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2292,158 +2078,158 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.6283185840708" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.2477876106195" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75221238938053" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.2477876106195" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.2477876106195" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.6272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.2454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.2454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.2454545454545" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.75" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.75" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.75" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.75" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="5" ht="14.75" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="6" t="s">
+    <row r="6" ht="14.75" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" ht="14.75" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" ht="14.75" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2455,103 +2241,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
+    <row r="9" ht="14.75" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" ht="14.75" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" ht="14.75" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" ht="14.75" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" ht="14.75" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" ht="14.75" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" ht="14.75" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2561,7 +2347,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2569,7 +2355,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" ht="14.75" spans="1:6">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2577,7 +2363,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" ht="14.75" spans="1:6">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2585,7 +2371,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" ht="14.75" spans="1:6">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2593,7 +2379,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" ht="14.75" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2601,7 +2387,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
+    <row r="21" ht="14.75" spans="1:6">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
